--- a/Files/Vaccine_March 4, 2003.xlsx
+++ b/Files/Vaccine_March 4, 2003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="136">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP</t>
+    <t xml:space="preserve">DTaP/</t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -50,7 +50,7 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial 5 x 1 dose vial </t>
+    <t xml:space="preserve">10 x 1 dose vial </t>
   </si>
   <si>
     <t xml:space="preserve">$11.75</t>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">DAPTACEL</t>
   </si>
   <si>
+    <t xml:space="preserve">5 x 1 dose vial </t>
+  </si>
+  <si>
     <t xml:space="preserve">$12.75</t>
   </si>
   <si>
@@ -77,12 +80,12 @@
     <t xml:space="preserve">Infanrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial 25 x 1 dose TIP-LOK </t>
-  </si>
-  <si>
     <t xml:space="preserve">GlaxoSmithKline</t>
   </si>
   <si>
+    <t xml:space="preserve">25 x 1 dose TIP-LOK </t>
+  </si>
+  <si>
     <t xml:space="preserve">$12.00</t>
   </si>
   <si>
@@ -92,16 +95,16 @@
     <t xml:space="preserve">Pediarix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial 5 x 1 dose syringe </t>
-  </si>
-  <si>
     <t xml:space="preserve">$32.75</t>
   </si>
   <si>
     <t xml:space="preserve">$60.06</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP  </t>
+    <t xml:space="preserve">5 x 1 dose syringe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTaP-Hib  </t>
   </si>
   <si>
     <t xml:space="preserve">TriHIBit</t>
@@ -127,7 +130,7 @@
     <t xml:space="preserve">IPOL</t>
   </si>
   <si>
-    <t xml:space="preserve">10 dose vial 10 x 1 dose syringe </t>
+    <t xml:space="preserve">10 dose vial </t>
   </si>
   <si>
     <t xml:space="preserve">$8.80</t>
@@ -136,10 +139,13 @@
     <t xml:space="preserve">$22.53</t>
   </si>
   <si>
+    <t xml:space="preserve">10 x 1 dose syringe </t>
+  </si>
+  <si>
     <t xml:space="preserve">$23.31</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis Bi </t>
+    <t xml:space="preserve">Hepatitis B-Hibi </t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -195,7 +201,7 @@
     <t xml:space="preserve">25 x 1 T-L Syr No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">25 x 1 T-L Syr 1&amp;Prime; 25g Needle</t>
+    <t xml:space="preserve">25 x 1 T-L Syr 1" 25g Needle</t>
   </si>
   <si>
     <t xml:space="preserve">Hepatitis A Adult</t>
@@ -245,7 +251,7 @@
     <t xml:space="preserve">$77.67</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -266,13 +272,10 @@
     <t xml:space="preserve">$9.25</t>
   </si>
   <si>
-    <t xml:space="preserve">251 T-L Syr No Needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 x1 T-L Syr 5/8&amp;Prime; Needle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 x1 T-L Syr 1&amp;Prime; 25g Needle</t>
+    <t xml:space="preserve">25 x1 T-L Syr 5/8" Needle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 x1 T-L Syr 1" 25g Needle</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -293,7 +296,10 @@
     <t xml:space="preserve">Hepatitis B-Adult</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vials 1 x 1 dose vial </t>
+    <t xml:space="preserve">10 x 1 dose vials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 x 1 dose vial </t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX-B</t>
@@ -371,7 +377,7 @@
     <t xml:space="preserve">$6.50</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR</t>
+    <t xml:space="preserve">MMR/</t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -387,7 +393,7 @@
     <t xml:space="preserve">$34.73</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -613,19 +619,19 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1">
         <v>37711</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
         <v>11</v>
@@ -636,13 +642,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -665,16 +671,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -691,16 +697,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>
@@ -720,16 +726,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -749,28 +755,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
         <v>37711</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -778,22 +784,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1">
         <v>37711</v>
@@ -807,28 +813,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1">
         <v>37711</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -836,28 +842,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1">
         <v>37711</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -865,28 +871,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1">
+        <v>37711</v>
+      </c>
+      <c r="H12" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="1">
-        <v>37711</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -894,22 +900,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G13" s="1">
         <v>37711</v>
@@ -923,22 +929,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G14" s="1">
         <v>37711</v>
@@ -952,22 +958,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
         <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
       </c>
       <c r="G15" s="1">
         <v>37711</v>
@@ -981,22 +987,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G16" s="1">
         <v>37711</v>
@@ -1010,22 +1016,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
         <v>59</v>
       </c>
-      <c r="E17" t="s">
-        <v>57</v>
-      </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G17" s="1">
         <v>37711</v>
@@ -1039,28 +1045,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1">
         <v>37802</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -1068,22 +1074,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1">
         <v>37802</v>
@@ -1097,22 +1103,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G20" s="1">
         <v>37802</v>
@@ -1126,22 +1132,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
         <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" t="s">
-        <v>63</v>
       </c>
       <c r="G21" s="1">
         <v>37802</v>
@@ -1155,22 +1161,22 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G22" s="1">
         <v>37802</v>
@@ -1184,22 +1190,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" t="s">
-        <v>69</v>
-      </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G23" s="1">
         <v>37802</v>
@@ -1213,22 +1219,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G24" s="1">
         <v>37802</v>
@@ -1242,22 +1248,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G25" s="1">
         <v>37711</v>
@@ -1271,22 +1277,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
       <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
         <v>79</v>
       </c>
-      <c r="E26" t="s">
-        <v>77</v>
-      </c>
       <c r="F26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G26" s="1">
         <v>37711</v>
@@ -1300,22 +1306,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
         <v>80</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" t="s">
-        <v>78</v>
       </c>
       <c r="G27" s="1">
         <v>37711</v>
@@ -1329,22 +1335,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G28" s="1">
         <v>37711</v>
@@ -1358,22 +1364,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" t="s">
         <v>83</v>
       </c>
-      <c r="E29" t="s">
-        <v>81</v>
-      </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G29" s="1">
         <v>37711</v>
@@ -1387,22 +1393,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G30" s="1">
         <v>37711</v>
@@ -1416,28 +1422,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G31" s="1">
         <v>37711</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1445,28 +1451,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G32" s="1">
         <v>37711</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -1474,28 +1480,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" t="s">
         <v>90</v>
-      </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" t="s">
-        <v>89</v>
       </c>
       <c r="G33" s="1">
         <v>37802</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
         <v>11</v>
@@ -1503,28 +1509,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s">
         <v>90</v>
-      </c>
-      <c r="B34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" t="s">
-        <v>89</v>
       </c>
       <c r="G34" s="1">
         <v>37802</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
         <v>11</v>
@@ -1532,22 +1538,22 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G35" s="1">
         <v>37802</v>
@@ -1561,22 +1567,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G36" s="1">
         <v>37802</v>
@@ -1590,22 +1596,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" t="s">
         <v>97</v>
-      </c>
-      <c r="E37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" t="s">
-        <v>95</v>
       </c>
       <c r="G37" s="1">
         <v>37802</v>
@@ -1619,28 +1625,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G38" s="1">
         <v>37711</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
         <v>11</v>
@@ -1648,28 +1654,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G39" s="1">
         <v>37711</v>
       </c>
       <c r="H39" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I39" t="s">
         <v>11</v>
@@ -1677,28 +1683,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G40" s="1">
         <v>37711</v>
       </c>
       <c r="H40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I40" t="s">
         <v>11</v>
@@ -1706,28 +1712,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F41" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G41" s="1">
         <v>37652</v>
       </c>
       <c r="H41" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -1735,28 +1741,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F42" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G42" s="1">
         <v>37711</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
         <v>11</v>
@@ -1764,28 +1770,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G43" s="1">
         <v>37711</v>
       </c>
       <c r="H43" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I43" t="s">
         <v>11</v>
@@ -1793,28 +1799,28 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G44" s="1">
         <v>37711</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
         <v>11</v>
@@ -1822,28 +1828,28 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G45" s="1">
         <v>37711</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
         <v>11</v>

--- a/Files/Vaccine_March 4, 2003.xlsx
+++ b/Files/Vaccine_March 4, 2003.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="133">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -89,7 +89,7 @@
     <t xml:space="preserve">$12.00</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV*</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV</t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -110,8 +110,7 @@
     <t xml:space="preserve">TriHIBit</t>
   </si>
   <si>
-    <t xml:space="preserve">5
-x 1 dose vials</t>
+    <t xml:space="preserve">5 x 1 dose vials</t>
   </si>
   <si>
     <t xml:space="preserve">$23.40</t>
@@ -120,8 +119,7 @@
     <t xml:space="preserve">$38.21</t>
   </si>
   <si>
-    <t xml:space="preserve">Aventis
-Pateur</t>
+    <t xml:space="preserve">Aventis Pateur</t>
   </si>
   <si>
     <t xml:space="preserve">e-IPV</t>
@@ -151,8 +149,7 @@
     <t xml:space="preserve">COMVAX</t>
   </si>
   <si>
-    <t xml:space="preserve">10
-x 1 dose vials</t>
+    <t xml:space="preserve">10 x 1 dose vials</t>
   </si>
   <si>
     <t xml:space="preserve">$21.83</t>
@@ -170,8 +167,7 @@
     <t xml:space="preserve">VAQTA</t>
   </si>
   <si>
-    <t xml:space="preserve">10
-x 1 dose vial</t>
+    <t xml:space="preserve">10 x 1 dose vial</t>
   </si>
   <si>
     <t xml:space="preserve">$11.15</t>
@@ -189,9 +185,6 @@
     <t xml:space="preserve">$29.73</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vial</t>
-  </si>
-  <si>
     <t xml:space="preserve">5 x 1 T-L Syr No Needle</t>
   </si>
   <si>
@@ -243,9 +236,7 @@
     <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
-    <t xml:space="preserve">10
-x 1dose vial
-5 x 1 dose TIP-LOK</t>
+    <t xml:space="preserve">10 x 1dose vial 5 x 1 dose TIP-LOK</t>
   </si>
   <si>
     <t xml:space="preserve">$77.67</t>
@@ -263,9 +254,6 @@
     <t xml:space="preserve">$24.20</t>
   </si>
   <si>
-    <t xml:space="preserve">10 x 1 dose vials</t>
-  </si>
-  <si>
     <t xml:space="preserve">5 x1 T-L Syr No Needle</t>
   </si>
   <si>
@@ -335,8 +323,7 @@
     <t xml:space="preserve">HibTITER</t>
   </si>
   <si>
-    <t xml:space="preserve">5
-x 1 dose vial</t>
+    <t xml:space="preserve">5 x 1 dose vial</t>
   </si>
   <si>
     <t xml:space="preserve">$7.33</t>
@@ -357,8 +344,7 @@
     <t xml:space="preserve">$21.78</t>
   </si>
   <si>
-    <t xml:space="preserve">Aventis
-Pasteur</t>
+    <t xml:space="preserve">Aventis Pasteur</t>
   </si>
   <si>
     <t xml:space="preserve">Influenza</t>
@@ -367,8 +353,7 @@
     <t xml:space="preserve">Fluzone</t>
   </si>
   <si>
-    <t xml:space="preserve">10
-dose vials</t>
+    <t xml:space="preserve">10 dose vials</t>
   </si>
   <si>
     <t xml:space="preserve">$5.525</t>
@@ -383,8 +368,7 @@
     <t xml:space="preserve">MMRII</t>
   </si>
   <si>
-    <t xml:space="preserve">10
-dose vial</t>
+    <t xml:space="preserve">10 dose vial</t>
   </si>
   <si>
     <t xml:space="preserve">$15.64</t>
@@ -397,9 +381,6 @@
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 x 1 dose vial</t>
   </si>
   <si>
     <t xml:space="preserve">$45.99</t>
@@ -938,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
         <v>52</v>
@@ -967,10 +948,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" t="s">
-        <v>59</v>
       </c>
       <c r="F15" t="s">
         <v>56</v>
@@ -996,10 +977,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
         <v>56</v>
@@ -1025,10 +1006,10 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" t="s">
         <v>56</v>
@@ -1045,7 +1026,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
@@ -1057,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
         <v>53</v>
@@ -1074,7 +1055,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -1086,10 +1067,10 @@
         <v>55</v>
       </c>
       <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
         <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>65</v>
       </c>
       <c r="G19" s="1">
         <v>37802</v>
@@ -1103,7 +1084,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -1112,13 +1093,13 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="1">
         <v>37802</v>
@@ -1132,7 +1113,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -1141,13 +1122,13 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="1">
         <v>37802</v>
@@ -1161,22 +1142,22 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
         <v>68</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
         <v>69</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>71</v>
-      </c>
-      <c r="F22" t="s">
-        <v>72</v>
       </c>
       <c r="G22" s="1">
         <v>37802</v>
@@ -1190,22 +1171,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
         <v>71</v>
-      </c>
-      <c r="F23" t="s">
-        <v>72</v>
       </c>
       <c r="G23" s="1">
         <v>37802</v>
@@ -1219,22 +1200,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
         <v>75</v>
-      </c>
-      <c r="E24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" t="s">
-        <v>76</v>
       </c>
       <c r="G24" s="1">
         <v>37802</v>
@@ -1248,10 +1229,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
         <v>77</v>
-      </c>
-      <c r="B25" t="s">
-        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1260,10 +1241,10 @@
         <v>55</v>
       </c>
       <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
         <v>79</v>
-      </c>
-      <c r="F25" t="s">
-        <v>80</v>
       </c>
       <c r="G25" s="1">
         <v>37711</v>
@@ -1277,22 +1258,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
         <v>77</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
         <v>78</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" t="s">
-        <v>80</v>
       </c>
       <c r="G26" s="1">
         <v>37711</v>
@@ -1306,22 +1287,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="1">
         <v>37711</v>
@@ -1335,22 +1316,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
         <v>77</v>
       </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G28" s="1">
         <v>37711</v>
@@ -1364,22 +1345,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
         <v>77</v>
       </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="1">
         <v>37711</v>
@@ -1393,22 +1374,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
         <v>77</v>
       </c>
-      <c r="B30" t="s">
-        <v>78</v>
-      </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="1">
         <v>37711</v>
@@ -1422,22 +1403,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" s="1">
         <v>37711</v>
@@ -1451,22 +1432,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" t="s">
         <v>88</v>
-      </c>
-      <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" t="s">
-        <v>90</v>
       </c>
       <c r="G32" s="1">
         <v>37711</v>
@@ -1480,22 +1461,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G33" s="1">
         <v>37802</v>
@@ -1509,22 +1490,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
         <v>91</v>
       </c>
-      <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s">
-        <v>93</v>
-      </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G34" s="1">
         <v>37802</v>
@@ -1538,22 +1519,22 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" t="s">
         <v>94</v>
       </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>95</v>
-      </c>
-      <c r="E35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" t="s">
-        <v>97</v>
       </c>
       <c r="G35" s="1">
         <v>37802</v>
@@ -1567,22 +1548,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G36" s="1">
         <v>37802</v>
@@ -1596,22 +1577,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G37" s="1">
         <v>37802</v>
@@ -1625,10 +1606,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
@@ -1637,10 +1618,10 @@
         <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G38" s="1">
         <v>37711</v>
@@ -1654,28 +1635,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" t="s">
         <v>104</v>
       </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>105</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" s="1">
+        <v>37711</v>
+      </c>
+      <c r="H39" t="s">
         <v>106</v>
-      </c>
-      <c r="F39" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" s="1">
-        <v>37711</v>
-      </c>
-      <c r="H39" t="s">
-        <v>108</v>
       </c>
       <c r="I39" t="s">
         <v>11</v>
@@ -1683,28 +1664,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" t="s">
         <v>109</v>
       </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="G40" s="1">
+        <v>37711</v>
+      </c>
+      <c r="H40" t="s">
         <v>110</v>
-      </c>
-      <c r="F40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="1">
-        <v>37711</v>
-      </c>
-      <c r="H40" t="s">
-        <v>112</v>
       </c>
       <c r="I40" t="s">
         <v>11</v>
@@ -1712,28 +1693,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
         <v>113</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E41" t="s">
         <v>114</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>115</v>
-      </c>
-      <c r="E41" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" t="s">
-        <v>117</v>
       </c>
       <c r="G41" s="1">
         <v>37652</v>
       </c>
       <c r="H41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -1741,22 +1722,22 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
         <v>118</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>119</v>
       </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>120</v>
-      </c>
-      <c r="E42" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" t="s">
-        <v>122</v>
       </c>
       <c r="G42" s="1">
         <v>37711</v>
@@ -1770,28 +1751,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
         <v>123</v>
       </c>
-      <c r="B43" t="s">
+      <c r="F43" t="s">
         <v>124</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" t="s">
-        <v>127</v>
-      </c>
       <c r="G43" s="1">
         <v>37711</v>
       </c>
       <c r="H43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I43" t="s">
         <v>11</v>
@@ -1799,22 +1780,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" t="s">
         <v>128</v>
-      </c>
-      <c r="B44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" t="s">
-        <v>131</v>
       </c>
       <c r="G44" s="1">
         <v>37711</v>
@@ -1828,22 +1809,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" t="s">
         <v>132</v>
-      </c>
-      <c r="B45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" t="s">
-        <v>135</v>
       </c>
       <c r="G45" s="1">
         <v>37711</v>
